--- a/data/Timaukel.xlsx
+++ b/data/Timaukel.xlsx
@@ -1764,7 +1764,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Bahía Angelito (200121003) Seno de Agostini Isla Tierra del Fuego</t>
+          <t>Centro de Engorda de Salmonídeos Bahía Ainsworth (200121024) Seno Almirantazgo Isla Tierra del Fuego</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1792,12 +1792,12 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4406&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1812,7 +1812,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Bahía Queta Isla Tierra del Fuego (200121005)</t>
+          <t>Centro de Engorda de Salmonídeos Bahía Angelito (200121003) Seno de Agostini Isla Tierra del Fuego</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1845,7 +1845,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4409&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1860,7 +1860,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Caleta La Paciencia Seno Almirantazgo Isla Tierra del Fuego (200121026)</t>
+          <t>Centro de Engorda de Salmonídeos Bahía Queta Isla Tierra del Fuego (200121005)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1893,7 +1893,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4411&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4409&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1908,7 +1908,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Ensenada Khan (200121019) Brazo Sur Este Seno ORyan (200121020) Punta Norte (200121022) Seno Martínez Isla Tierra del Fuego</t>
+          <t>Centro de Engorda de Salmonídeos Caleta La Paciencia Seno Almirantazgo Isla Tierra del Fuego (200121026)</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1941,7 +1941,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4411&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1956,7 +1956,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Punta Milcavi (200121023) Caleta Escandallo (200121008) Seno Martínez Isla Tierra del Fuego</t>
+          <t>Centro de Engorda de Salmonídeos Ensenada Khan (200121019) Brazo Sur Este Seno ORyan (200121020) Punta Norte (200121022) Seno Martínez Isla Tierra del Fuego</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,7 +1975,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4414&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2004,7 +2004,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Bahía Ainsworth (200121024) Seno Almirantazgo Isla Tierra del Fuego</t>
+          <t>Centro de Engorda de Salmonídeos Punta Milcavi (200121023) Caleta Escandallo (200121008) Seno Martínez Isla Tierra del Fuego</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,7 +2023,7 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -2032,12 +2032,12 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4406&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4414&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">

--- a/data/Timaukel.xlsx
+++ b/data/Timaukel.xlsx
@@ -1764,7 +1764,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Bahía Ainsworth (200121024) Seno Almirantazgo Isla Tierra del Fuego</t>
+          <t>Centro de Engorda de Salmonídeos Bahía Angelito (200121003) Seno de Agostini Isla Tierra del Fuego</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1792,12 +1792,12 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4406&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1812,7 +1812,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Bahía Angelito (200121003) Seno de Agostini Isla Tierra del Fuego</t>
+          <t>Centro de Engorda de Salmonídeos Bahía Queta Isla Tierra del Fuego (200121005)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1845,7 +1845,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4409&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1860,7 +1860,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Bahía Queta Isla Tierra del Fuego (200121005)</t>
+          <t>Centro de Engorda de Salmonídeos Caleta La Paciencia Seno Almirantazgo Isla Tierra del Fuego (200121026)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1893,7 +1893,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4409&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4411&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1908,7 +1908,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Caleta La Paciencia Seno Almirantazgo Isla Tierra del Fuego (200121026)</t>
+          <t>Centro de Engorda de Salmonídeos Ensenada Khan (200121019) Brazo Sur Este Seno ORyan (200121020) Punta Norte (200121022) Seno Martínez Isla Tierra del Fuego</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1941,7 +1941,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4411&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1956,7 +1956,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Ensenada Khan (200121019) Brazo Sur Este Seno ORyan (200121020) Punta Norte (200121022) Seno Martínez Isla Tierra del Fuego</t>
+          <t>Centro de Engorda de Salmonídeos Punta Milcavi (200121023) Caleta Escandallo (200121008) Seno Martínez Isla Tierra del Fuego</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,7 +1975,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4413&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4414&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2004,7 +2004,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Punta Milcavi (200121023) Caleta Escandallo (200121008) Seno Martínez Isla Tierra del Fuego</t>
+          <t>Centro de Engorda de Salmonídeos Bahía Ainsworth (200121024) Seno Almirantazgo Isla Tierra del Fuego</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,7 +2023,7 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -2032,12 +2032,12 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4414&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4406&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
